--- a/pre/NAT.xlsx
+++ b/pre/NAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vikingbda-my.sharepoint.com/personal/henrik_viking_bm/Documents/Desktop/PREOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\Viking-master\Viking-master\pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A65B0EC-A7FC-447B-A6F9-ED25CC26895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90FF993-0827-44C0-811F-8C45EA9DCF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{E0C79CF8-B0F8-4BA2-8B78-C1ABD3132FD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0C79CF8-B0F8-4BA2-8B78-C1ABD3132FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Natalie's PreOrder" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -614,10 +614,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,7 +1089,7 @@
   <dimension ref="A1:AF191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E20" sqref="E20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1548,25 +1544,23 @@
     <col min="16137" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="40" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1686,33 +1680,13 @@
       <c r="D20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="41">
-        <v>44893</v>
-      </c>
-      <c r="F20" s="42">
-        <f>E20+28</f>
-        <v>44921</v>
-      </c>
-      <c r="G20" s="42">
-        <f t="shared" ref="G20:K20" si="0">F20+14</f>
-        <v>44935</v>
-      </c>
-      <c r="H20" s="42">
-        <f t="shared" si="0"/>
-        <v>44949</v>
-      </c>
-      <c r="I20" s="42">
-        <f t="shared" si="0"/>
-        <v>44963</v>
-      </c>
-      <c r="J20" s="42">
-        <f t="shared" si="0"/>
-        <v>44977</v>
-      </c>
-      <c r="K20" s="42">
-        <f t="shared" si="0"/>
-        <v>44991</v>
-      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -1727,34 +1701,13 @@
       <c r="D21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="41">
-        <f>E20+16</f>
-        <v>44909</v>
-      </c>
-      <c r="F21" s="42">
-        <f t="shared" ref="F21:K21" si="1">F20+16</f>
-        <v>44937</v>
-      </c>
-      <c r="G21" s="42">
-        <f t="shared" si="1"/>
-        <v>44951</v>
-      </c>
-      <c r="H21" s="42">
-        <f t="shared" si="1"/>
-        <v>44965</v>
-      </c>
-      <c r="I21" s="42">
-        <f t="shared" si="1"/>
-        <v>44979</v>
-      </c>
-      <c r="J21" s="42">
-        <f t="shared" si="1"/>
-        <v>44993</v>
-      </c>
-      <c r="K21" s="42">
-        <f t="shared" si="1"/>
-        <v>45007</v>
-      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -2046,9 +1999,9 @@
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
@@ -2068,9 +2021,9 @@
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
@@ -4058,322 +4011,85 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-    </row>
+    <row r="113" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" orientation="portrait" r:id="rId1"/>
